--- a/remotes.xlsx
+++ b/remotes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{35AE8EED-E2B2-4125-96A8-3C70BDE6D9D5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0FC4D32E-E3D3-4E4F-99F4-395093453F15}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="300" windowWidth="16800" windowHeight="6525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1690,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617DC280-8B50-426D-A898-381E262D86EA}">
   <dimension ref="A1:B413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="A391" sqref="A391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
